--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Efnb3</t>
+  </si>
+  <si>
+    <t>Ephb1</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efnb3</t>
-  </si>
-  <si>
-    <t>Ephb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H2">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I2">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J2">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.211866666666667</v>
+        <v>1.397474666666667</v>
       </c>
       <c r="N2">
-        <v>6.6356</v>
+        <v>4.192424</v>
       </c>
       <c r="O2">
-        <v>0.4811217919111272</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="P2">
-        <v>0.4811217919111272</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="Q2">
-        <v>0.1396911766222222</v>
+        <v>0.3024097912675556</v>
       </c>
       <c r="R2">
-        <v>1.2572205896</v>
+        <v>2.721688121408</v>
       </c>
       <c r="S2">
-        <v>0.04182372077069392</v>
+        <v>0.2489614745185577</v>
       </c>
       <c r="T2">
-        <v>0.04182372077069393</v>
+        <v>0.2489614745185577</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H3">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I3">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J3">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,33 +620,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.385444666666666</v>
+        <v>0.07803566666666666</v>
       </c>
       <c r="N3">
-        <v>7.156333999999999</v>
+        <v>0.234107</v>
       </c>
       <c r="O3">
-        <v>0.5188782080888727</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="P3">
-        <v>0.5188782080888727</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="Q3">
-        <v>0.1506535530715555</v>
+        <v>0.01688671017155555</v>
       </c>
       <c r="R3">
-        <v>1.355881977644</v>
+        <v>0.151980391544</v>
       </c>
       <c r="S3">
-        <v>0.04510587060067259</v>
+        <v>0.01390213010781256</v>
       </c>
       <c r="T3">
-        <v>0.04510587060067261</v>
+        <v>0.01390213010781256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -658,52 +658,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5618379999999999</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H4">
-        <v>1.685514</v>
+        <v>0.649192</v>
       </c>
       <c r="I4">
-        <v>0.7733368692573732</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J4">
-        <v>0.7733368692573734</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.211866666666667</v>
+        <v>0.034731</v>
       </c>
       <c r="N4">
-        <v>6.6356</v>
+        <v>0.104193</v>
       </c>
       <c r="O4">
-        <v>0.4811217919111272</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="P4">
-        <v>0.4811217919111272</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="Q4">
-        <v>1.242710744266667</v>
+        <v>0.007515695784</v>
       </c>
       <c r="R4">
-        <v>11.1843966984</v>
+        <v>0.06764126205599999</v>
       </c>
       <c r="S4">
-        <v>0.3720692202880485</v>
+        <v>0.006187361515560467</v>
       </c>
       <c r="T4">
-        <v>0.3720692202880486</v>
+        <v>0.006187361515560466</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H5">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I5">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J5">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.385444666666666</v>
+        <v>1.397474666666667</v>
       </c>
       <c r="N5">
-        <v>7.156333999999999</v>
+        <v>4.192424</v>
       </c>
       <c r="O5">
-        <v>0.5188782080888727</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="P5">
-        <v>0.5188782080888727</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="Q5">
-        <v>1.340233460630667</v>
+        <v>0.08825797839822221</v>
       </c>
       <c r="R5">
-        <v>12.062101145676</v>
+        <v>0.794321805584</v>
       </c>
       <c r="S5">
-        <v>0.4012676489693247</v>
+        <v>0.07265914356790139</v>
       </c>
       <c r="T5">
-        <v>0.4012676489693248</v>
+        <v>0.0726591435679014</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.073382</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H6">
-        <v>0.220146</v>
+        <v>0.189466</v>
       </c>
       <c r="I6">
-        <v>0.1010059948594516</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J6">
-        <v>0.1010059948594516</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,33 +806,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.211866666666667</v>
+        <v>0.07803566666666666</v>
       </c>
       <c r="N6">
-        <v>6.6356</v>
+        <v>0.234107</v>
       </c>
       <c r="O6">
-        <v>0.4811217919111272</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="P6">
-        <v>0.4811217919111272</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="Q6">
-        <v>0.1623111997333334</v>
+        <v>0.004928368540222221</v>
       </c>
       <c r="R6">
-        <v>1.4608007976</v>
+        <v>0.044355316862</v>
       </c>
       <c r="S6">
-        <v>0.04859618524054546</v>
+        <v>0.004057321998741226</v>
       </c>
       <c r="T6">
-        <v>0.04859618524054547</v>
+        <v>0.004057321998741227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,51 +850,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.073382</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H7">
-        <v>0.220146</v>
+        <v>0.189466</v>
       </c>
       <c r="I7">
-        <v>0.1010059948594516</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J7">
-        <v>0.1010059948594516</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.385444666666666</v>
+        <v>0.034731</v>
       </c>
       <c r="N7">
-        <v>7.156333999999999</v>
+        <v>0.104193</v>
       </c>
       <c r="O7">
-        <v>0.5188782080888727</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="P7">
-        <v>0.5188782080888727</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="Q7">
-        <v>0.1750487005293333</v>
+        <v>0.002193447882</v>
       </c>
       <c r="R7">
-        <v>1.575438304764</v>
+        <v>0.019741030938</v>
       </c>
       <c r="S7">
-        <v>0.05240980961890614</v>
+        <v>0.001805774927767408</v>
       </c>
       <c r="T7">
-        <v>0.05240980961890615</v>
+        <v>0.001805774927767408</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,25 +903,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.028136</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H8">
-        <v>0.08440800000000001</v>
+        <v>1.327958</v>
       </c>
       <c r="I8">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J8">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.211866666666667</v>
+        <v>1.397474666666667</v>
       </c>
       <c r="N8">
-        <v>6.6356</v>
+        <v>4.192424</v>
       </c>
       <c r="O8">
-        <v>0.4811217919111272</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="P8">
-        <v>0.4811217919111272</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="Q8">
-        <v>0.06223308053333335</v>
+        <v>0.618595887799111</v>
       </c>
       <c r="R8">
-        <v>0.5600977248000001</v>
+        <v>5.567362990192</v>
       </c>
       <c r="S8">
-        <v>0.01863266561183924</v>
+        <v>0.5092644114202188</v>
       </c>
       <c r="T8">
-        <v>0.01863266561183924</v>
+        <v>0.5092644114202189</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,25 +965,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.028136</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H9">
-        <v>0.08440800000000001</v>
+        <v>1.327958</v>
       </c>
       <c r="I9">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J9">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.385444666666666</v>
+        <v>0.07803566666666666</v>
       </c>
       <c r="N9">
-        <v>7.156333999999999</v>
+        <v>0.234107</v>
       </c>
       <c r="O9">
-        <v>0.5188782080888727</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="P9">
-        <v>0.5188782080888727</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="Q9">
-        <v>0.06711687114133334</v>
+        <v>0.03454269594511111</v>
       </c>
       <c r="R9">
-        <v>0.604051840272</v>
+        <v>0.310884263506</v>
       </c>
       <c r="S9">
-        <v>0.02009487889996925</v>
+        <v>0.02843757300415062</v>
       </c>
       <c r="T9">
-        <v>0.02009487889996925</v>
+        <v>0.02843757300415063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4426526666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.327958</v>
+      </c>
+      <c r="I10">
+        <v>0.5503585732663155</v>
+      </c>
+      <c r="J10">
+        <v>0.5503585732663157</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.034731</v>
+      </c>
+      <c r="N10">
+        <v>0.104193</v>
+      </c>
+      <c r="O10">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="P10">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="Q10">
+        <v>0.015373769766</v>
+      </c>
+      <c r="R10">
+        <v>0.138363927894</v>
+      </c>
+      <c r="S10">
+        <v>0.01265658884194606</v>
+      </c>
+      <c r="T10">
+        <v>0.01265658884194606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.24628</v>
+      </c>
+      <c r="I11">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="J11">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.397474666666667</v>
+      </c>
+      <c r="N11">
+        <v>4.192424</v>
+      </c>
+      <c r="O11">
+        <v>0.9253320219903044</v>
+      </c>
+      <c r="P11">
+        <v>0.9253320219903044</v>
+      </c>
+      <c r="Q11">
+        <v>0.1147233536355556</v>
+      </c>
+      <c r="R11">
+        <v>1.03251018272</v>
+      </c>
+      <c r="S11">
+        <v>0.09444699248362638</v>
+      </c>
+      <c r="T11">
+        <v>0.09444699248362638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.24628</v>
+      </c>
+      <c r="I12">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="J12">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.07803566666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.234107</v>
+      </c>
+      <c r="O12">
+        <v>0.05167099121464913</v>
+      </c>
+      <c r="P12">
+        <v>0.05167099121464913</v>
+      </c>
+      <c r="Q12">
+        <v>0.006406207995555555</v>
+      </c>
+      <c r="R12">
+        <v>0.05765587195999999</v>
+      </c>
+      <c r="S12">
+        <v>0.005273966103944715</v>
+      </c>
+      <c r="T12">
+        <v>0.005273966103944715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.24628</v>
+      </c>
+      <c r="I13">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="J13">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.034731</v>
+      </c>
+      <c r="N13">
+        <v>0.104193</v>
+      </c>
+      <c r="O13">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="P13">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="Q13">
+        <v>0.00285118356</v>
+      </c>
+      <c r="R13">
+        <v>0.02566065204</v>
+      </c>
+      <c r="S13">
+        <v>0.002347261509772505</v>
+      </c>
+      <c r="T13">
+        <v>0.002347261509772504</v>
       </c>
     </row>
   </sheetData>
